--- a/仕様書・資料/【仕様】エネミー仕様書.xlsx
+++ b/仕様書・資料/【仕様】エネミー仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\GitHub\AMAZURU\仕様書・資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Documents\AMAZURU\仕様書・資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0CE051-9E2E-46D1-8190-D2F540A57D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>以上</t>
     <rPh sb="0" eb="2">
@@ -362,11 +363,324 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>乾燥ナマコから通常ナマコへと変化する。</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後日画像更新</t>
+    <rPh sb="0" eb="2">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　1. 3 プレイヤーとの関係</t>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・プレイヤーがナマコッコに触れると、ナマコッコが『』のモーションを行う。</t>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ナマコッコに視界という概念が存在しないため、ナマコッコの前方にプレイヤーが居ても追いかけてくるなどの挙動はしない。</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーにとって害のある存在、ゲーム上での敵キャラクターとなる。</t>
+    <rPh sb="10" eb="11">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　3. 1 概要</t>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　3. 2 動作</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　2. 2 動作</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　2. 1 概要</t>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　3. 3 プレイヤーとの関係</t>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>乾燥</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナマコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常ナマコがブロック状になっており、ステージに溜まる水に乾燥ナマコが完全に浸かることで、</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲この状態では、乾燥ナマコが水に浸かってはいますが、</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　完全に通常ナマコには変化しません。</t>
+    <rPh sb="1" eb="3">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲乾燥ナマコが完全に水に浸かってはいますが、</t>
+    <rPh sb="1" eb="3">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　てっぺんまで浸かっていないため通常ナマコには変化しません。</t>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲変化したナマコッコは乾燥ナマコがあった地点から</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　地面に向かって落下していきます。</t>
+    <rPh sb="1" eb="3">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　着地し終わったナマコッコは、『1.通常ナマコ』と同様の挙動を行います。</t>
+    <rPh sb="1" eb="3">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※一度『通常ナマコ』に変化した後に、乾燥ナマコに変化しなおす可能性があるため、</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　何かしらフラグが立つと乾燥ナマコに変化するような設計にしてください。</t>
+    <rPh sb="26" eb="28">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別タブの『1.通常ナマコ』と同様。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -553,7 +867,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +919,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,230 +1403,263 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1337,7 +1696,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="屈折矢印 26"/>
+        <xdr:cNvPr id="27" name="屈折矢印 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1398,7 +1763,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1436,7 +1807,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1449,7 +1826,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="楕円 3"/>
+          <xdr:cNvPr id="4" name="楕円 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1495,7 +1878,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="楕円 4"/>
+          <xdr:cNvPr id="5" name="楕円 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1541,7 +1930,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="楕円 5"/>
+          <xdr:cNvPr id="6" name="楕円 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1587,7 +1982,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="楕円 6"/>
+          <xdr:cNvPr id="7" name="楕円 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1633,7 +2034,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="楕円 7"/>
+          <xdr:cNvPr id="8" name="楕円 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1679,7 +2086,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="楕円 8"/>
+          <xdr:cNvPr id="9" name="楕円 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1741,7 +2154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="右矢印 9"/>
+        <xdr:cNvPr id="10" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1795,7 +2214,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1808,7 +2233,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="楕円 10"/>
+          <xdr:cNvPr id="11" name="楕円 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1856,7 +2287,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="楕円 11"/>
+          <xdr:cNvPr id="12" name="楕円 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1904,7 +2341,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="楕円 12"/>
+          <xdr:cNvPr id="13" name="楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1952,7 +2395,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="楕円 13"/>
+          <xdr:cNvPr id="14" name="楕円 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2000,7 +2449,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="楕円 14"/>
+          <xdr:cNvPr id="15" name="楕円 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2048,7 +2503,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="楕円 15"/>
+          <xdr:cNvPr id="16" name="楕円 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2112,7 +2573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="右矢印 18"/>
+        <xdr:cNvPr id="19" name="右矢印 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2169,7 +2636,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2231,7 +2704,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="右矢印 19"/>
+        <xdr:cNvPr id="20" name="右矢印 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2288,7 +2767,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="右矢印 20"/>
+        <xdr:cNvPr id="21" name="右矢印 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2345,7 +2830,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="右矢印 21"/>
+        <xdr:cNvPr id="22" name="右矢印 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2402,7 +2893,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="右矢印 22"/>
+        <xdr:cNvPr id="23" name="右矢印 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2459,7 +2956,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="楕円 23"/>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2516,7 +3019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="楕円 24"/>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2578,7 +3087,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="楕円 25"/>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2614,6 +3129,257 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AA8D09-6D2C-43EC-A006-4DBC70B928BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486274" y="7915275"/>
+          <a:ext cx="866775" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0D4668-C03D-4090-A878-D55CA5F5589B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810624" y="7924800"/>
+          <a:ext cx="866775" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>209553</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD71603-794B-481D-9882-4941245A4888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="10510745" y="8158066"/>
+          <a:ext cx="409764" cy="895352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>184797</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546217AD-A0E3-46E6-8255-986AD6FC43A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10169847" y="7880029"/>
+          <a:ext cx="585790" cy="399110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2885,11 +3651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -2902,42 +3668,42 @@
     <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="23" customFormat="1" ht="35.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:33" s="11" customFormat="1" ht="35.25">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" ht="25.5">
       <c r="A3" s="6"/>
@@ -2989,118 +3755,118 @@
     </row>
     <row r="7" spans="1:33" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:33" ht="19.5" thickBot="1">
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="85" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="25.5">
-      <c r="G9" s="65">
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="66"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
-      <c r="G10" s="26">
+      <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="67"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:33" ht="25.5">
-      <c r="G11" s="26">
+      <c r="G11" s="14">
         <v>3</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="68"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:33" ht="25.5">
-      <c r="G12" s="26">
+      <c r="G12" s="14">
         <v>4</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="67"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:33" ht="25.5">
-      <c r="G13" s="26">
+      <c r="G13" s="14">
         <v>5</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="68"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:33" ht="25.5">
-      <c r="G14" s="26">
+      <c r="G14" s="14">
         <v>6</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="67"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:33" ht="26.25" thickBot="1">
-      <c r="G15" s="39">
+      <c r="G15" s="15">
         <v>7</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="69"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="17" spans="1:33" s="7" customFormat="1" ht="25.5">
       <c r="A17" s="6"/>
@@ -3108,7 +3874,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3120,233 +3886,233 @@
     </row>
     <row r="20" spans="1:33" ht="19.5" thickBot="1"/>
     <row r="21" spans="1:33" ht="38.25" customHeight="1">
-      <c r="G21" s="44">
+      <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="47" t="s">
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="49"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="61"/>
     </row>
     <row r="22" spans="1:33" ht="38.25" customHeight="1">
-      <c r="G22" s="50">
+      <c r="G22" s="18">
         <v>2</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="51" t="s">
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="42"/>
     </row>
     <row r="23" spans="1:33" ht="38.25" customHeight="1">
-      <c r="G23" s="54">
+      <c r="G23" s="19">
         <v>3</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="51" t="s">
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="42"/>
     </row>
     <row r="24" spans="1:33" ht="38.25" customHeight="1">
-      <c r="G24" s="50">
+      <c r="G24" s="18">
         <v>4</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="42"/>
     </row>
     <row r="25" spans="1:33" ht="38.25" customHeight="1">
-      <c r="G25" s="54">
+      <c r="G25" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="42"/>
     </row>
     <row r="26" spans="1:33" ht="38.25" customHeight="1">
-      <c r="G26" s="50">
+      <c r="G26" s="18">
         <v>6</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="42"/>
     </row>
     <row r="27" spans="1:33" ht="38.25" customHeight="1" thickBot="1">
-      <c r="G27" s="58">
+      <c r="G27" s="20">
         <v>7</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="64"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="48"/>
     </row>
     <row r="32" spans="1:33" s="1" customFormat="1">
       <c r="B32" s="2" t="s">
@@ -3355,6 +4121,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:AG22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:AG23"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:AG21"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="O26:AG26"/>
     <mergeCell ref="H27:N27"/>
@@ -3363,20 +4143,6 @@
     <mergeCell ref="O24:AG24"/>
     <mergeCell ref="H25:N25"/>
     <mergeCell ref="O25:AG25"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:AG22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:AG23"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:AG21"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3384,73 +4150,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN46" sqref="AN46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:34" s="23" customFormat="1" ht="35.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="35.25">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -3461,20 +4227,20 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -3567,379 +4333,379 @@
       <c r="AH7" s="4"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
       <c r="AA10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
       <c r="AB11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
       <c r="AA13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
       <c r="AB14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
       <c r="AA16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
       <c r="AB17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
       <c r="AB18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
     </row>
     <row r="20" spans="1:40">
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
     </row>
     <row r="21" spans="1:40">
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
     </row>
     <row r="23" spans="1:40">
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
     </row>
     <row r="26" spans="1:40" s="3" customFormat="1" ht="24">
       <c r="A26" s="5"/>
@@ -3995,391 +4761,444 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="F32" s="73"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="74"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="74"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="74"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="74"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="74"/>
-    </row>
-    <row r="33" spans="6:40">
-      <c r="F33" s="78"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="79"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="72"/>
-      <c r="AN33" s="79"/>
-    </row>
-    <row r="34" spans="6:40">
-      <c r="F34" s="75"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="76"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="76"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="76"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="80"/>
-      <c r="AK34" s="76"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="80"/>
-      <c r="AN34" s="76"/>
-    </row>
-    <row r="35" spans="6:40">
-      <c r="F35" s="73"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="74"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="77"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="77"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="77"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="74"/>
-    </row>
-    <row r="36" spans="6:40">
-      <c r="F36" s="78"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="79"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="78"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="78"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="78"/>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="78"/>
-      <c r="AM36" s="72"/>
-      <c r="AN36" s="79"/>
-    </row>
-    <row r="37" spans="6:40">
-      <c r="F37" s="75"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="76"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="80"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="75"/>
-      <c r="AG37" s="80"/>
-      <c r="AH37" s="76"/>
-      <c r="AI37" s="75"/>
-      <c r="AJ37" s="80"/>
-      <c r="AK37" s="76"/>
-      <c r="AL37" s="75"/>
-      <c r="AM37" s="80"/>
-      <c r="AN37" s="76"/>
-    </row>
-    <row r="38" spans="6:40">
-      <c r="F38" s="73"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="74"/>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="77"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="73"/>
-      <c r="AD38" s="77"/>
-      <c r="AE38" s="74"/>
-      <c r="AF38" s="73"/>
-      <c r="AG38" s="77"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="73"/>
-      <c r="AJ38" s="77"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="73"/>
-      <c r="AM38" s="77"/>
-      <c r="AN38" s="74"/>
-    </row>
-    <row r="39" spans="6:40">
-      <c r="F39" s="78"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="79"/>
-      <c r="Z39" s="78"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="78"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="78"/>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="78"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="78"/>
-      <c r="AM39" s="72"/>
-      <c r="AN39" s="79"/>
-    </row>
-    <row r="40" spans="6:40">
-      <c r="F40" s="75"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="76"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="76"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="80"/>
-      <c r="AE40" s="76"/>
-      <c r="AF40" s="75"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="76"/>
-      <c r="AI40" s="75"/>
-      <c r="AJ40" s="80"/>
-      <c r="AK40" s="76"/>
-      <c r="AL40" s="75"/>
-      <c r="AM40" s="80"/>
-      <c r="AN40" s="76"/>
-    </row>
-    <row r="41" spans="6:40">
-      <c r="F41" s="73"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="74"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="77"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="77"/>
-      <c r="AE41" s="74"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="77"/>
-      <c r="AH41" s="74"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="77"/>
-      <c r="AK41" s="74"/>
-      <c r="AL41" s="73"/>
-      <c r="AM41" s="77"/>
-      <c r="AN41" s="74"/>
-    </row>
-    <row r="42" spans="6:40">
-      <c r="F42" s="78"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="79"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="79"/>
-      <c r="AC42" s="78"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="79"/>
-      <c r="AF42" s="78"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="79"/>
-      <c r="AI42" s="78"/>
-      <c r="AJ42" s="72"/>
-      <c r="AK42" s="79"/>
-      <c r="AL42" s="78"/>
-      <c r="AM42" s="72"/>
-      <c r="AN42" s="79"/>
-    </row>
-    <row r="43" spans="6:40">
-      <c r="F43" s="75"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="76"/>
-      <c r="Z43" s="75"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="76"/>
-      <c r="AC43" s="75"/>
-      <c r="AD43" s="80"/>
-      <c r="AE43" s="76"/>
-      <c r="AF43" s="75"/>
-      <c r="AG43" s="80"/>
-      <c r="AH43" s="76"/>
-      <c r="AI43" s="75"/>
-      <c r="AJ43" s="80"/>
-      <c r="AK43" s="76"/>
-      <c r="AL43" s="75"/>
-      <c r="AM43" s="80"/>
-      <c r="AN43" s="76"/>
-    </row>
-    <row r="58" spans="2:2" s="1" customFormat="1">
-      <c r="B58" s="2" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="28"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="28"/>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="F33" s="32"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="33"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="33"/>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="F34" s="29"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="30"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="30"/>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="F35" s="27"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="28"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="28"/>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="F36" s="32"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="33"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="33"/>
+    </row>
+    <row r="37" spans="1:40">
+      <c r="F37" s="29"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="30"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="30"/>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="F38" s="27"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="28"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="28"/>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="F39" s="32"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="33"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="33"/>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="F40" s="29"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="30"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="34"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="29"/>
+      <c r="AM40" s="34"/>
+      <c r="AN40" s="30"/>
+    </row>
+    <row r="41" spans="1:40">
+      <c r="F41" s="27"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="28"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="28"/>
+    </row>
+    <row r="42" spans="1:40">
+      <c r="F42" s="32"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="33"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="33"/>
+    </row>
+    <row r="43" spans="1:40">
+      <c r="F43" s="29"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="30"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="29"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="30"/>
+    </row>
+    <row r="46" spans="1:40" s="3" customFormat="1" ht="24">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+    </row>
+    <row r="48" spans="1:40">
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" s="1" customFormat="1">
+      <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4392,8 +5211,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX"/>
-    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP"/>
+    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4402,73 +5221,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG15" sqref="AG15"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:34" s="23" customFormat="1" ht="35.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="35.25">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -4479,20 +5298,20 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -4552,7 +5371,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -4585,379 +5404,381 @@
       <c r="AH7" s="4"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
+      <c r="F10" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
       <c r="AA10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
       <c r="AB11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
       <c r="AA13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
       <c r="AB14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
       <c r="AA16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
       <c r="AB17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
       <c r="AB18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
     </row>
     <row r="26" spans="1:34" s="3" customFormat="1" ht="24">
       <c r="A26" s="5"/>
@@ -4965,7 +5786,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -5012,8 +5833,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX"/>
-    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP"/>
+    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5021,73 +5842,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BB50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF15" sqref="AF15"/>
+      <selection pane="bottomLeft" activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:34" s="23" customFormat="1" ht="35.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="35.25">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -5098,20 +5919,20 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -5171,7 +5992,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -5204,387 +6025,386 @@
       <c r="AH7" s="4"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
+      <c r="F10" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
       <c r="AA10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
       <c r="AB11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
       <c r="AA13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="AB14" t="s">
-        <v>17</v>
-      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
     </row>
     <row r="15" spans="1:34">
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
       <c r="AA16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
+    <row r="17" spans="1:54">
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
       <c r="AB17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54">
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
       <c r="AB18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-    </row>
-    <row r="26" spans="1:34" s="3" customFormat="1" ht="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54">
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+    </row>
+    <row r="20" spans="1:54">
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+    </row>
+    <row r="21" spans="1:54">
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+    </row>
+    <row r="22" spans="1:54">
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+    </row>
+    <row r="23" spans="1:54">
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+    </row>
+    <row r="24" spans="1:54">
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
+    </row>
+    <row r="26" spans="1:54" s="3" customFormat="1" ht="24">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -5616,8 +6436,428 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
     </row>
-    <row r="58" spans="2:2" s="1" customFormat="1">
-      <c r="B58" s="2" t="s">
+    <row r="29" spans="1:54">
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="87"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="87"/>
+      <c r="AI29" s="86"/>
+      <c r="AJ29" s="87"/>
+      <c r="AQ29" s="86"/>
+      <c r="AR29" s="87"/>
+      <c r="BA29" s="86"/>
+      <c r="BB29" s="87"/>
+    </row>
+    <row r="30" spans="1:54">
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="89"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="89"/>
+      <c r="AI30" s="88"/>
+      <c r="AJ30" s="89"/>
+      <c r="AQ30" s="88"/>
+      <c r="AR30" s="89"/>
+      <c r="BA30" s="88"/>
+      <c r="BB30" s="89"/>
+    </row>
+    <row r="31" spans="1:54">
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="91"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="87"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="87"/>
+      <c r="AQ31" s="86"/>
+      <c r="AR31" s="87"/>
+      <c r="AS31" s="92"/>
+      <c r="AT31" s="92"/>
+      <c r="AU31" s="92"/>
+      <c r="AV31" s="92"/>
+      <c r="AW31" s="92"/>
+      <c r="AX31" s="92"/>
+      <c r="AY31" s="92"/>
+      <c r="AZ31" s="92"/>
+      <c r="BA31" s="86"/>
+      <c r="BB31" s="87"/>
+    </row>
+    <row r="32" spans="1:54">
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="96"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="89"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="88"/>
+      <c r="AJ32" s="89"/>
+      <c r="AQ32" s="88"/>
+      <c r="AR32" s="89"/>
+      <c r="AS32" s="92"/>
+      <c r="AT32" s="92"/>
+      <c r="AU32" s="92"/>
+      <c r="AV32" s="92"/>
+      <c r="AW32" s="92"/>
+      <c r="AX32" s="92"/>
+      <c r="AY32" s="92"/>
+      <c r="AZ32" s="92"/>
+      <c r="BA32" s="88"/>
+      <c r="BB32" s="89"/>
+    </row>
+    <row r="33" spans="1:54">
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="87"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="92"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="86"/>
+      <c r="AJ33" s="87"/>
+      <c r="AQ33" s="86"/>
+      <c r="AR33" s="87"/>
+      <c r="AS33" s="92"/>
+      <c r="AT33" s="92"/>
+      <c r="AU33" s="92"/>
+      <c r="AV33" s="92"/>
+      <c r="AW33" s="92"/>
+      <c r="AX33" s="92"/>
+      <c r="AY33" s="92"/>
+      <c r="AZ33" s="92"/>
+      <c r="BA33" s="86"/>
+      <c r="BB33" s="87"/>
+    </row>
+    <row r="34" spans="1:54">
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="89"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="92"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD34" s="92"/>
+      <c r="AE34" s="92"/>
+      <c r="AF34" s="92"/>
+      <c r="AG34" s="92"/>
+      <c r="AH34" s="92"/>
+      <c r="AI34" s="88"/>
+      <c r="AJ34" s="89"/>
+      <c r="AQ34" s="88"/>
+      <c r="AR34" s="89"/>
+      <c r="AS34" s="92"/>
+      <c r="AT34" s="92"/>
+      <c r="AU34" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV34" s="92"/>
+      <c r="AW34" s="92"/>
+      <c r="AX34" s="92"/>
+      <c r="AY34" s="92"/>
+      <c r="AZ34" s="92"/>
+      <c r="BA34" s="88"/>
+      <c r="BB34" s="89"/>
+    </row>
+    <row r="35" spans="1:54">
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="87"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="87"/>
+      <c r="AQ35" s="86"/>
+      <c r="AR35" s="87"/>
+      <c r="AS35" s="92"/>
+      <c r="AT35" s="92"/>
+      <c r="AU35" s="92"/>
+      <c r="AV35" s="92"/>
+      <c r="AW35" s="92"/>
+      <c r="AX35" s="92"/>
+      <c r="AY35" s="92"/>
+      <c r="AZ35" s="92"/>
+      <c r="BA35" s="86"/>
+      <c r="BB35" s="87"/>
+    </row>
+    <row r="36" spans="1:54">
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="89"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="92"/>
+      <c r="AG36" s="92"/>
+      <c r="AH36" s="92"/>
+      <c r="AI36" s="88"/>
+      <c r="AJ36" s="89"/>
+      <c r="AQ36" s="88"/>
+      <c r="AR36" s="89"/>
+      <c r="AS36" s="92"/>
+      <c r="AT36" s="92"/>
+      <c r="AU36" s="92"/>
+      <c r="AV36" s="92"/>
+      <c r="AW36" s="92"/>
+      <c r="AX36" s="92"/>
+      <c r="AY36" s="92"/>
+      <c r="AZ36" s="92"/>
+      <c r="BA36" s="88"/>
+      <c r="BB36" s="89"/>
+    </row>
+    <row r="37" spans="1:54">
+      <c r="F37" s="86"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="87"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="87"/>
+      <c r="AC37" s="86"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="86"/>
+      <c r="AF37" s="87"/>
+      <c r="AG37" s="86"/>
+      <c r="AH37" s="87"/>
+      <c r="AI37" s="86"/>
+      <c r="AJ37" s="87"/>
+      <c r="AQ37" s="86"/>
+      <c r="AR37" s="87"/>
+      <c r="AS37" s="86"/>
+      <c r="AT37" s="87"/>
+      <c r="AU37" s="86"/>
+      <c r="AV37" s="87"/>
+      <c r="AW37" s="86"/>
+      <c r="AX37" s="87"/>
+      <c r="AY37" s="86"/>
+      <c r="AZ37" s="87"/>
+      <c r="BA37" s="86"/>
+      <c r="BB37" s="87"/>
+    </row>
+    <row r="38" spans="1:54">
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="89"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="88"/>
+      <c r="AB38" s="89"/>
+      <c r="AC38" s="88"/>
+      <c r="AD38" s="89"/>
+      <c r="AE38" s="88"/>
+      <c r="AF38" s="89"/>
+      <c r="AG38" s="88"/>
+      <c r="AH38" s="89"/>
+      <c r="AI38" s="88"/>
+      <c r="AJ38" s="89"/>
+      <c r="AQ38" s="88"/>
+      <c r="AR38" s="89"/>
+      <c r="AS38" s="88"/>
+      <c r="AT38" s="89"/>
+      <c r="AU38" s="88"/>
+      <c r="AV38" s="89"/>
+      <c r="AW38" s="88"/>
+      <c r="AX38" s="89"/>
+      <c r="AY38" s="88"/>
+      <c r="AZ38" s="89"/>
+      <c r="BA38" s="88"/>
+      <c r="BB38" s="89"/>
+    </row>
+    <row r="40" spans="1:54">
+      <c r="F40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
+      <c r="AQ42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
+      <c r="AQ43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
+      <c r="AQ44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" s="3" customFormat="1" ht="24">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+    </row>
+    <row r="47" spans="1:54">
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" s="1" customFormat="1">
+      <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5630,10 +6870,11 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX"/>
-    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP"/>
+    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様書・資料/【仕様】エネミー仕様書.xlsx
+++ b/仕様書・資料/【仕様】エネミー仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Documents\AMAZURU\仕様書・資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Documents\AMAZURU_Document\仕様書・資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0CE051-9E2E-46D1-8190-D2F540A57D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC7C52-5627-4911-8E24-09DB5AB750A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>以上</t>
     <rPh sb="0" eb="2">
@@ -462,13 +462,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　2. 2 動作</t>
-    <rPh sb="6" eb="8">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　2. 1 概要</t>
     <rPh sb="6" eb="8">
       <t>ガイヨウ</t>
@@ -673,6 +666,291 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・通常のナマコッコに雷が落ちた際に、ナマコッコが帯電することで帯電ナマコとなる。</t>
+    <rPh sb="2" eb="4">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　その際に通常ナマコッコから電気ナマコッコへとモデルも切り替わる。</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　2. 2 発生条件</t>
+    <rPh sb="6" eb="8">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　2. 3 効果内容</t>
+    <rPh sb="6" eb="8">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・帯電ナマコッコは地上にいる際は、通常ナマコと変わりないが、水中に入ることで効果が発揮される。</t>
+    <rPh sb="1" eb="3">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　水中に電気を帯びさせ、その状態の水にプレイヤーが入ると、痺れてn秒間動けなくなる。</t>
+    <rPh sb="1" eb="3">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シビ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■プレイヤーが効果を受けない例</t>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■プレイヤーが効果を受ける例</t>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水が触れていないため、帯電ナマコの効果は受けない。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　動けない間も酸素ゲージは通常(水中にいるとき)と同じ速度で減っていく。</t>
+    <rPh sb="1" eb="2">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※nはプランナーが変更できるようにしてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーは一度痺れると、次に痺れるまでにn秒間の間痺れ耐性が存在し、その間は痺れることがない。</t>
+    <rPh sb="7" eb="9">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シビ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シビ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナマコッコのトゲは水中に入ることで、赤く発行する。</t>
+    <rPh sb="9" eb="11">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に帯電エフェクトをまとっている</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・帯電ナマコッコが水中にいる間は、水面にも帯電エフェクトが発生する。</t>
+    <rPh sb="1" eb="3">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スイメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1481,13 +1759,91 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,39 +1854,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,44 +1879,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,39 +1939,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1668,6 +1946,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7B3131"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3135,10 +3418,2229 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="楕円 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8990B3E-7ED0-4460-A027-C94E5AFA2DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2204944" y="12177806"/>
+          <a:ext cx="409764" cy="895352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA995CA-AF78-4F4C-B722-305F3A12666E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2204944" y="12177806"/>
+          <a:ext cx="409764" cy="895352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="楕円 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6095EC6-29B4-4522-89B8-826DD6D65C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2204944" y="12177806"/>
+          <a:ext cx="409764" cy="895352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="楕円 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07565EFE-4C61-463B-9657-DF3E1E165C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2204944" y="12177806"/>
+          <a:ext cx="409764" cy="895352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="二等辺三角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD2D2CC-76A7-4CAE-A3C6-4055106EDDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21106281">
+          <a:off x="5476874" y="12306300"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="二等辺三角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306BC89C-5B2E-4CE8-8ECD-96F506668A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1749375">
+          <a:off x="5962650" y="12344400"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="二等辺三角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10298876-22D5-48E7-9BA7-952CAACBF61C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3008748">
+          <a:off x="6134101" y="12496800"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="二等辺三角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDC5BB7-CE03-4B39-ADE1-5A5C3B7963D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21106281">
+          <a:off x="2133600" y="12268200"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7B3131"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="二等辺三角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B2065D-864F-422A-B74E-CFACF1E276BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1749375">
+          <a:off x="2619376" y="12306300"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7B3131"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="二等辺三角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631FEE11-65EA-4397-AAB3-244575F165DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3008748">
+          <a:off x="2790827" y="12458700"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7B3131"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="稲妻 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2ECD49-DAF6-4FE7-976F-EC5A0CF1A926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695949" y="10639425"/>
+          <a:ext cx="600075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="稲妻 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F20AAC-4642-42A7-B433-7DB6AF66513C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="344233">
+          <a:off x="6448424" y="10620374"/>
+          <a:ext cx="600075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="稲妻 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4B236E-2D7A-4852-B46A-B0B2F51D5266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5928843">
+          <a:off x="7315199" y="10544175"/>
+          <a:ext cx="600075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95255</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57157</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7F0738-ACDB-4D78-9EF6-AFEED71FFF30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2071599" y="8700991"/>
+          <a:ext cx="533590" cy="1152527"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>帯電ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>218313</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E991ECA2-5C95-46F5-B45B-94546FA992C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3313938" y="14897100"/>
+          <a:ext cx="696087" cy="904875"/>
+          <a:chOff x="6209538" y="7562850"/>
+          <a:chExt cx="696087" cy="904875"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="二等辺三角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B86E34-8B31-4638-BDB7-D60703BB2909}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6209538" y="7867650"/>
+            <a:ext cx="696087" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="楕円 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33774F9-B268-4919-8545-E603F7F9CE30}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6324600" y="7562850"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95255</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57157</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1BDB00-1C5D-45D5-8092-A496D20DBE87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6119724" y="13596841"/>
+          <a:ext cx="533590" cy="1152527"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>帯電ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>218313</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE99C28-A2DE-42BF-B302-AA75F6C0DD40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3313938" y="11658600"/>
+          <a:ext cx="696087" cy="876300"/>
+          <a:chOff x="6209538" y="7562850"/>
+          <a:chExt cx="696087" cy="904875"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="二等辺三角形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723AEB8E-7905-4420-953B-3EB138C9D985}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6209538" y="7867650"/>
+            <a:ext cx="696087" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="楕円 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A92F04D-C8C3-4348-919A-92417CC21078}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6324600" y="7562850"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95255</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57157</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2BF030-933F-4073-81F7-FF21BBD41086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9929724" y="13596841"/>
+          <a:ext cx="533590" cy="1152527"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>帯電ナマコッコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>218313</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438121E4-A8A9-4D91-98B8-8B116378AA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7123938" y="11658600"/>
+          <a:ext cx="696087" cy="876300"/>
+          <a:chOff x="6209538" y="7562850"/>
+          <a:chExt cx="696087" cy="904875"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="二等辺三角形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C62E022-776A-4AE7-BAE0-0E1D5D1DF7CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6209538" y="7867650"/>
+            <a:ext cx="696087" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="楕円 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8114AA-5AB6-4514-8E01-75C75B245210}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6324600" y="7562850"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="稲妻 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E104621-63E4-4761-AFE9-1DD027702ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="10067925"/>
+          <a:ext cx="600075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="稲妻 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE65E59A-509A-4748-BC06-772C60FE7366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="344233">
+          <a:off x="2505075" y="10048874"/>
+          <a:ext cx="600075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="稲妻 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C965985-49CF-4567-8D81-BBB1A3672E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5928843">
+          <a:off x="3371850" y="9972675"/>
+          <a:ext cx="600075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33307</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>8099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119112</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>198057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="稲妻 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037443C4-A3F1-4235-A8A4-35D18CBC2A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20235190">
+          <a:off x="1938307" y="10723724"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156901</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>103118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="稲妻 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B66C330-4C99-466D-A923-EA479B59AF77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4986308">
+          <a:off x="2643157" y="10904699"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>217337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156901</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>84067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="稲妻 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F80004-A5B9-4E30-8E2C-C27FA125C7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18138081">
+          <a:off x="1928782" y="11114248"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14257</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>65249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>100062</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>26607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="稲妻 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD25A08-BAA1-4254-B191-297C2242B10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20235190">
+          <a:off x="5729257" y="10780874"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>195543</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>137851</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>160268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="稲妻 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E5EE5D-4820-4D4D-9074-AEFC4A79FBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4986308">
+          <a:off x="6434107" y="10961849"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>214592</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>226862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>156900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>93592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="稲妻 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C82A19F-040D-456A-B21F-6D834CB23B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18138081">
+          <a:off x="5738781" y="11123773"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4733</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>46199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90538</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>226632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="稲妻 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6D5D5B-F11B-42C2-8B25-A7BD24ABCF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20235190">
+          <a:off x="1909733" y="14238449"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186019</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>36363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>128327</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>122168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="稲妻 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71437CA6-F9EB-4AD7-883E-7D17828ECE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4986308">
+          <a:off x="2614583" y="14419424"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186019</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>7787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128327</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>93592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="稲妻 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272C514F-E7ED-436F-9037-619DEE52FFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18138081">
+          <a:off x="1900208" y="14628973"/>
+          <a:ext cx="323930" cy="418558"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3654,8 +6156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -3758,15 +6260,15 @@
       <c r="G8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="36" t="s">
         <v>27</v>
       </c>
@@ -3775,97 +6277,97 @@
       <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="62"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
       <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:33" ht="25.5">
       <c r="G11" s="14">
         <v>3</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:33" ht="25.5">
       <c r="G12" s="14">
         <v>4</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:33" ht="25.5">
       <c r="G13" s="14">
         <v>5</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:33" ht="25.5">
       <c r="G14" s="14">
         <v>6</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="67"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="59"/>
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:33" ht="26.25" thickBot="1">
       <c r="G15" s="15">
         <v>7</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="25"/>
     </row>
     <row r="17" spans="1:33" s="7" customFormat="1" ht="25.5">
@@ -3889,230 +6391,230 @@
       <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59" t="s">
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="61"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="76"/>
     </row>
     <row r="22" spans="1:33" ht="38.25" customHeight="1">
       <c r="G22" s="18">
         <v>2</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="40" t="s">
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="42"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="68"/>
     </row>
     <row r="23" spans="1:33" ht="38.25" customHeight="1">
       <c r="G23" s="19">
         <v>3</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="40" t="s">
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="42"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="68"/>
     </row>
     <row r="24" spans="1:33" ht="38.25" customHeight="1">
       <c r="G24" s="18">
         <v>4</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="42"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="68"/>
     </row>
     <row r="25" spans="1:33" ht="38.25" customHeight="1">
       <c r="G25" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="42"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="68"/>
     </row>
     <row r="26" spans="1:33" ht="38.25" customHeight="1">
       <c r="G26" s="18">
         <v>6</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="42"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="68"/>
     </row>
     <row r="27" spans="1:33" ht="38.25" customHeight="1" thickBot="1">
       <c r="G27" s="20">
         <v>7</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="48"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="85"/>
     </row>
     <row r="32" spans="1:33" s="1" customFormat="1">
       <c r="B32" s="2" t="s">
@@ -4121,20 +6623,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:AG22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:AG23"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:AG21"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="O26:AG26"/>
     <mergeCell ref="H27:N27"/>
@@ -4143,6 +6631,20 @@
     <mergeCell ref="O24:AG24"/>
     <mergeCell ref="H25:N25"/>
     <mergeCell ref="O25:AG25"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:AG22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:AG23"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:AG21"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4151,11 +6653,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN46" sqref="AN46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -4199,16 +6701,16 @@
       <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -4227,12 +6729,12 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -4333,379 +6835,379 @@
       <c r="AH7" s="4"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
       <c r="AA10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
       <c r="AB11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
       <c r="AA13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
       <c r="AB14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
       <c r="AA16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
       <c r="AB17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
       <c r="AB18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
     </row>
     <row r="20" spans="1:40">
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
     </row>
     <row r="21" spans="1:40">
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
     </row>
     <row r="23" spans="1:40">
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
     </row>
     <row r="26" spans="1:40" s="3" customFormat="1" ht="24">
       <c r="A26" s="5"/>
@@ -4792,7 +7294,7 @@
       <c r="AM32" s="31"/>
       <c r="AN32" s="28"/>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="6:40">
       <c r="F33" s="32"/>
       <c r="G33" s="26"/>
       <c r="H33" s="33"/>
@@ -4824,7 +7326,7 @@
       <c r="AM33" s="26"/>
       <c r="AN33" s="33"/>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="6:40">
       <c r="F34" s="29"/>
       <c r="G34" s="34"/>
       <c r="H34" s="30"/>
@@ -4856,7 +7358,7 @@
       <c r="AM34" s="34"/>
       <c r="AN34" s="30"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="6:40">
       <c r="F35" s="27"/>
       <c r="G35" s="31"/>
       <c r="H35" s="28"/>
@@ -4888,7 +7390,7 @@
       <c r="AM35" s="31"/>
       <c r="AN35" s="28"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="6:40">
       <c r="F36" s="32"/>
       <c r="G36" s="26"/>
       <c r="H36" s="33"/>
@@ -4920,7 +7422,7 @@
       <c r="AM36" s="26"/>
       <c r="AN36" s="33"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="6:40">
       <c r="F37" s="29"/>
       <c r="G37" s="34"/>
       <c r="H37" s="30"/>
@@ -4952,7 +7454,7 @@
       <c r="AM37" s="34"/>
       <c r="AN37" s="30"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="6:40">
       <c r="F38" s="27"/>
       <c r="G38" s="31"/>
       <c r="H38" s="28"/>
@@ -4984,7 +7486,7 @@
       <c r="AM38" s="31"/>
       <c r="AN38" s="28"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="6:40">
       <c r="F39" s="32"/>
       <c r="G39" s="26"/>
       <c r="H39" s="33"/>
@@ -5016,7 +7518,7 @@
       <c r="AM39" s="26"/>
       <c r="AN39" s="33"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="6:40">
       <c r="F40" s="29"/>
       <c r="G40" s="34"/>
       <c r="H40" s="30"/>
@@ -5048,7 +7550,7 @@
       <c r="AM40" s="34"/>
       <c r="AN40" s="30"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="6:40">
       <c r="F41" s="27"/>
       <c r="G41" s="31"/>
       <c r="H41" s="28"/>
@@ -5080,7 +7582,7 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="28"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="6:40">
       <c r="F42" s="32"/>
       <c r="G42" s="26"/>
       <c r="H42" s="33"/>
@@ -5112,7 +7614,7 @@
       <c r="AM42" s="26"/>
       <c r="AN42" s="33"/>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="6:40">
       <c r="F43" s="29"/>
       <c r="G43" s="34"/>
       <c r="H43" s="30"/>
@@ -5144,61 +7646,240 @@
       <c r="AM43" s="34"/>
       <c r="AN43" s="30"/>
     </row>
-    <row r="46" spans="1:40" s="3" customFormat="1" ht="24">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4" t="s">
+    <row r="46" spans="6:40">
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="38"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="38"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="38"/>
+    </row>
+    <row r="47" spans="6:40">
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="40"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="40"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="40"/>
+    </row>
+    <row r="48" spans="6:40">
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="38"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="38"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="38"/>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="40"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="43"/>
+      <c r="AB49" s="43"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="40"/>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="38"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="43"/>
+      <c r="AB50" s="43"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="38"/>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="40"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="40"/>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="38"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="38"/>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="40"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="43"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="40"/>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="38"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="38"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="38"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="38"/>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="40"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="40"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="40"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="40"/>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" s="3" customFormat="1" ht="24">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-    </row>
-    <row r="48" spans="1:40">
-      <c r="F48" t="s">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="F61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="F50" t="s">
+    <row r="63" spans="1:34">
+      <c r="F63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
-      <c r="F51" t="s">
+    <row r="64" spans="1:34">
+      <c r="F64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:6" s="1" customFormat="1">
-      <c r="B56" s="2" t="s">
+    <row r="69" spans="2:2" s="1" customFormat="1">
+      <c r="B69" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5222,11 +7903,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -5270,16 +7951,16 @@
       <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -5298,12 +7979,12 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -5371,7 +8052,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -5404,381 +8085,384 @@
       <c r="AH7" s="4"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
       <c r="AA10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
       <c r="AB11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
       <c r="AA13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
       <c r="AB14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
       <c r="AA16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
       <c r="AB17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
       <c r="AB18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="AB20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
     </row>
     <row r="26" spans="1:34" s="3" customFormat="1" ht="24">
       <c r="A26" s="5"/>
@@ -5786,7 +8470,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -5818,9 +8502,403 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
     </row>
-    <row r="31" spans="1:34" ht="18" customHeight="1"/>
-    <row r="46" spans="2:2" s="1" customFormat="1">
-      <c r="B46" s="2" t="s">
+    <row r="28" spans="1:34">
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" s="3" customFormat="1" ht="24">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+    </row>
+    <row r="33" spans="6:35">
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="6:35" ht="18" customHeight="1">
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="6:35" ht="18" customHeight="1">
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="6:35" ht="18" customHeight="1">
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="6:35" ht="18" customHeight="1"/>
+    <row r="38" spans="6:35" ht="18" customHeight="1">
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="6:35" ht="18" customHeight="1"/>
+    <row r="40" spans="6:35" ht="18" customHeight="1">
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="6:35" ht="18" customHeight="1">
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="6:35" ht="18" customHeight="1"/>
+    <row r="43" spans="6:35" ht="18" customHeight="1">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="6:35" ht="18" customHeight="1"/>
+    <row r="45" spans="6:35" ht="18" customHeight="1">
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="38"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="38"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="38"/>
+    </row>
+    <row r="46" spans="6:35" ht="18" customHeight="1">
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="40"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="40"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="40"/>
+    </row>
+    <row r="47" spans="6:35" ht="18" customHeight="1">
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="38"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="38"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="38"/>
+    </row>
+    <row r="48" spans="6:35" ht="18" customHeight="1">
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="40"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="40"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="40"/>
+    </row>
+    <row r="49" spans="6:35" ht="18" customHeight="1">
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="38"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="38"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="38"/>
+    </row>
+    <row r="50" spans="6:35" ht="18" customHeight="1">
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="40"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="40"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="40"/>
+    </row>
+    <row r="51" spans="6:35" ht="18" customHeight="1">
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="38"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="38"/>
+    </row>
+    <row r="52" spans="6:35" ht="18" customHeight="1">
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="40"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="43"/>
+      <c r="AF52" s="43"/>
+      <c r="AG52" s="43"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="40"/>
+    </row>
+    <row r="53" spans="6:35" ht="18" customHeight="1">
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="38"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="38"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="38"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="38"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="38"/>
+    </row>
+    <row r="54" spans="6:35" ht="18" customHeight="1">
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="40"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="40"/>
+    </row>
+    <row r="55" spans="6:35" ht="18" customHeight="1"/>
+    <row r="56" spans="6:35" ht="18" customHeight="1"/>
+    <row r="57" spans="6:35" ht="18" customHeight="1">
+      <c r="F57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="6:35" ht="18" customHeight="1"/>
+    <row r="59" spans="6:35">
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="38"/>
+    </row>
+    <row r="60" spans="6:35">
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="40"/>
+    </row>
+    <row r="61" spans="6:35">
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="38"/>
+    </row>
+    <row r="62" spans="6:35">
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="40"/>
+    </row>
+    <row r="63" spans="6:35">
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="38"/>
+    </row>
+    <row r="64" spans="6:35">
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="40"/>
+    </row>
+    <row r="65" spans="2:19">
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="38"/>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="40"/>
+    </row>
+    <row r="67" spans="2:19">
+      <c r="F67" s="37"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="38"/>
+    </row>
+    <row r="68" spans="2:19">
+      <c r="F68" s="39"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="40"/>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" s="1" customFormat="1">
+      <c r="B73" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5838,6 +8916,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5845,9 +8924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE15" sqref="AE15"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -5891,16 +8970,16 @@
       <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -5919,12 +8998,12 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -6025,378 +9104,378 @@
       <c r="AH7" s="4"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
       <c r="AA10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
       <c r="AB11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
       <c r="AA13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
     </row>
     <row r="15" spans="1:34">
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
       <c r="AA16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:54">
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
       <c r="AB17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:54">
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
       <c r="AB18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:54">
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
     </row>
     <row r="20" spans="1:54">
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
     </row>
     <row r="21" spans="1:54">
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
     </row>
     <row r="22" spans="1:54">
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
     </row>
     <row r="23" spans="1:54">
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
     </row>
     <row r="24" spans="1:54">
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
     </row>
     <row r="26" spans="1:54" s="3" customFormat="1" ht="24">
       <c r="A26" s="5"/>
@@ -6437,380 +9516,380 @@
       <c r="AH26" s="4"/>
     </row>
     <row r="29" spans="1:54">
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="87"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="87"/>
-      <c r="AI29" s="86"/>
-      <c r="AJ29" s="87"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="87"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="87"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="38"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="38"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="38"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="38"/>
     </row>
     <row r="30" spans="1:54">
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="89"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="89"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="89"/>
-      <c r="AQ30" s="88"/>
-      <c r="AR30" s="89"/>
-      <c r="BA30" s="88"/>
-      <c r="BB30" s="89"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="40"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="40"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="40"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="40"/>
+      <c r="BA30" s="39"/>
+      <c r="BB30" s="40"/>
     </row>
     <row r="31" spans="1:54">
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="90" t="s">
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="42"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="38"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="37"/>
+      <c r="BB31" s="38"/>
+    </row>
+    <row r="32" spans="1:54">
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="91"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="87"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="93" t="s">
+      <c r="I32" s="47"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="40"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="86"/>
-      <c r="AJ31" s="87"/>
-      <c r="AQ31" s="86"/>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="92"/>
-      <c r="AT31" s="92"/>
-      <c r="AU31" s="92"/>
-      <c r="AV31" s="92"/>
-      <c r="AW31" s="92"/>
-      <c r="AX31" s="92"/>
-      <c r="AY31" s="92"/>
-      <c r="AZ31" s="92"/>
-      <c r="BA31" s="86"/>
-      <c r="BB31" s="87"/>
-    </row>
-    <row r="32" spans="1:54">
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="95" t="s">
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="40"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="40"/>
+    </row>
+    <row r="33" spans="1:54">
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="38"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="43"/>
+      <c r="AU33" s="43"/>
+      <c r="AV33" s="43"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="43"/>
+      <c r="AY33" s="43"/>
+      <c r="AZ33" s="43"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="38"/>
+    </row>
+    <row r="34" spans="1:54">
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="96"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="89"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="95" t="s">
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="40"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="92"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="89"/>
-      <c r="AQ32" s="88"/>
-      <c r="AR32" s="89"/>
-      <c r="AS32" s="92"/>
-      <c r="AT32" s="92"/>
-      <c r="AU32" s="92"/>
-      <c r="AV32" s="92"/>
-      <c r="AW32" s="92"/>
-      <c r="AX32" s="92"/>
-      <c r="AY32" s="92"/>
-      <c r="AZ32" s="92"/>
-      <c r="BA32" s="88"/>
-      <c r="BB32" s="89"/>
-    </row>
-    <row r="33" spans="1:54">
-      <c r="F33" s="86"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="87"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="86"/>
-      <c r="AJ33" s="87"/>
-      <c r="AQ33" s="86"/>
-      <c r="AR33" s="87"/>
-      <c r="AS33" s="92"/>
-      <c r="AT33" s="92"/>
-      <c r="AU33" s="92"/>
-      <c r="AV33" s="92"/>
-      <c r="AW33" s="92"/>
-      <c r="AX33" s="92"/>
-      <c r="AY33" s="92"/>
-      <c r="AZ33" s="92"/>
-      <c r="BA33" s="86"/>
-      <c r="BB33" s="87"/>
-    </row>
-    <row r="34" spans="1:54">
-      <c r="F34" s="88"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="89"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="92"/>
-      <c r="AF34" s="92"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="88"/>
-      <c r="AJ34" s="89"/>
-      <c r="AQ34" s="88"/>
-      <c r="AR34" s="89"/>
-      <c r="AS34" s="92"/>
-      <c r="AT34" s="92"/>
-      <c r="AU34" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV34" s="92"/>
-      <c r="AW34" s="92"/>
-      <c r="AX34" s="92"/>
-      <c r="AY34" s="92"/>
-      <c r="AZ34" s="92"/>
-      <c r="BA34" s="88"/>
-      <c r="BB34" s="89"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="40"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43"/>
+      <c r="AU34" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV34" s="43"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="43"/>
+      <c r="AY34" s="43"/>
+      <c r="AZ34" s="43"/>
+      <c r="BA34" s="39"/>
+      <c r="BB34" s="40"/>
     </row>
     <row r="35" spans="1:54">
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="87"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="92"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="92"/>
-      <c r="AI35" s="86"/>
-      <c r="AJ35" s="87"/>
-      <c r="AQ35" s="86"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="92"/>
-      <c r="AT35" s="92"/>
-      <c r="AU35" s="92"/>
-      <c r="AV35" s="92"/>
-      <c r="AW35" s="92"/>
-      <c r="AX35" s="92"/>
-      <c r="AY35" s="92"/>
-      <c r="AZ35" s="92"/>
-      <c r="BA35" s="86"/>
-      <c r="BB35" s="87"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="38"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="38"/>
+      <c r="AQ35" s="37"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="43"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+      <c r="AW35" s="43"/>
+      <c r="AX35" s="43"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="38"/>
     </row>
     <row r="36" spans="1:54">
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="89"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="92"/>
-      <c r="AB36" s="92"/>
-      <c r="AC36" s="92"/>
-      <c r="AD36" s="92"/>
-      <c r="AE36" s="92"/>
-      <c r="AF36" s="92"/>
-      <c r="AG36" s="92"/>
-      <c r="AH36" s="92"/>
-      <c r="AI36" s="88"/>
-      <c r="AJ36" s="89"/>
-      <c r="AQ36" s="88"/>
-      <c r="AR36" s="89"/>
-      <c r="AS36" s="92"/>
-      <c r="AT36" s="92"/>
-      <c r="AU36" s="92"/>
-      <c r="AV36" s="92"/>
-      <c r="AW36" s="92"/>
-      <c r="AX36" s="92"/>
-      <c r="AY36" s="92"/>
-      <c r="AZ36" s="92"/>
-      <c r="BA36" s="88"/>
-      <c r="BB36" s="89"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="40"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="40"/>
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="43"/>
+      <c r="AT36" s="43"/>
+      <c r="AU36" s="43"/>
+      <c r="AV36" s="43"/>
+      <c r="AW36" s="43"/>
+      <c r="AX36" s="43"/>
+      <c r="AY36" s="43"/>
+      <c r="AZ36" s="43"/>
+      <c r="BA36" s="39"/>
+      <c r="BB36" s="40"/>
     </row>
     <row r="37" spans="1:54">
-      <c r="F37" s="86"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="87"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="87"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="87"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="87"/>
-      <c r="AE37" s="86"/>
-      <c r="AF37" s="87"/>
-      <c r="AG37" s="86"/>
-      <c r="AH37" s="87"/>
-      <c r="AI37" s="86"/>
-      <c r="AJ37" s="87"/>
-      <c r="AQ37" s="86"/>
-      <c r="AR37" s="87"/>
-      <c r="AS37" s="86"/>
-      <c r="AT37" s="87"/>
-      <c r="AU37" s="86"/>
-      <c r="AV37" s="87"/>
-      <c r="AW37" s="86"/>
-      <c r="AX37" s="87"/>
-      <c r="AY37" s="86"/>
-      <c r="AZ37" s="87"/>
-      <c r="BA37" s="86"/>
-      <c r="BB37" s="87"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="38"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="38"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="38"/>
     </row>
     <row r="38" spans="1:54">
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="89"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="89"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="89"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="88"/>
-      <c r="AJ38" s="89"/>
-      <c r="AQ38" s="88"/>
-      <c r="AR38" s="89"/>
-      <c r="AS38" s="88"/>
-      <c r="AT38" s="89"/>
-      <c r="AU38" s="88"/>
-      <c r="AV38" s="89"/>
-      <c r="AW38" s="88"/>
-      <c r="AX38" s="89"/>
-      <c r="AY38" s="88"/>
-      <c r="AZ38" s="89"/>
-      <c r="BA38" s="88"/>
-      <c r="BB38" s="89"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="40"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="40"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="40"/>
+      <c r="AW38" s="39"/>
+      <c r="AX38" s="40"/>
+      <c r="AY38" s="39"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="39"/>
+      <c r="BB38" s="40"/>
     </row>
     <row r="40" spans="1:54">
       <c r="F40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:54">
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AQ41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:54">
       <c r="AQ42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:54">
       <c r="AQ43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:54">
       <c r="AQ44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:54" s="3" customFormat="1" ht="24">
@@ -6819,7 +9898,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -6853,7 +9932,7 @@
     </row>
     <row r="47" spans="1:54">
       <c r="F47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="1" customFormat="1">

--- a/仕様書・資料/【仕様】エネミー仕様書.xlsx
+++ b/仕様書・資料/【仕様】エネミー仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Documents\AMAZURU_Document\仕様書・資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC7C52-5627-4911-8E24-09DB5AB750A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>以上</t>
     <rPh sb="0" eb="2">
@@ -816,25 +815,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水が触れていないため、帯電ナマコの効果は受けない。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイデン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　動けない間も酸素ゲージは通常(水中にいるとき)と同じ速度で減っていく。</t>
     <rPh sb="1" eb="2">
       <t>ウゴ</t>
@@ -954,11 +934,69 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プレイヤーと帯電ナマコが水に触れていないため、帯電ナマコの効果は受けない。</t>
+    <rPh sb="6" eb="8">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■参考イメージ</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①帯電ナマコが水中に存在する際の水面エフェクト</t>
+    <rPh sb="1" eb="3">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スイメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②プレイヤーが帯電ナマコの効果をうけ、ビリビリしているイメージ</t>
+    <rPh sb="7" eb="9">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1647,7 +1685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,6 +1976,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4350,8 +4391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3313938" y="14897100"/>
-          <a:ext cx="696087" cy="904875"/>
+          <a:off x="3289173" y="14582775"/>
+          <a:ext cx="690372" cy="876300"/>
           <a:chOff x="6209538" y="7562850"/>
           <a:chExt cx="696087" cy="904875"/>
         </a:xfrm>
@@ -4572,8 +4613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3313938" y="11658600"/>
-          <a:ext cx="696087" cy="876300"/>
+          <a:off x="3289173" y="11382375"/>
+          <a:ext cx="690372" cy="876300"/>
           <a:chOff x="6209538" y="7562850"/>
           <a:chExt cx="696087" cy="904875"/>
         </a:xfrm>
@@ -4794,8 +4835,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7123938" y="11658600"/>
-          <a:ext cx="696087" cy="876300"/>
+          <a:off x="7068693" y="11382375"/>
+          <a:ext cx="690372" cy="876300"/>
           <a:chOff x="6209538" y="7562850"/>
           <a:chExt cx="696087" cy="904875"/>
         </a:xfrm>
@@ -5637,6 +5678,217 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="17762" t="27503" r="13571"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13441679" y="10683240"/>
+          <a:ext cx="3855721" cy="2289810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>111899</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="10688055"/>
+          <a:ext cx="4158119" cy="2598824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9227820" y="10736580"/>
+          <a:ext cx="617220" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487400" y="10614660"/>
+          <a:ext cx="617220" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6153,24 +6405,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18"/>
   <cols>
-    <col min="6" max="6" width="3.125" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="4.5" customWidth="1"/>
-    <col min="24" max="24" width="4.125" customWidth="1"/>
+    <col min="24" max="24" width="4.09765625" customWidth="1"/>
     <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="11" customFormat="1" ht="35.25">
+    <row r="1" spans="1:33" s="11" customFormat="1" ht="36.6">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -6207,7 +6459,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="3" spans="1:33" s="7" customFormat="1" ht="25.5">
+    <row r="3" spans="1:33" s="7" customFormat="1" ht="26.4">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -6256,7 +6508,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1"/>
-    <row r="8" spans="1:33" ht="19.5" thickBot="1">
+    <row r="8" spans="1:33" ht="18.600000000000001" thickBot="1">
       <c r="G8" s="35" t="s">
         <v>28</v>
       </c>
@@ -6273,7 +6525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="25.5">
+    <row r="9" spans="1:33" ht="26.4">
       <c r="G9" s="21">
         <v>1</v>
       </c>
@@ -6288,7 +6540,7 @@
       <c r="N9" s="62"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:33" ht="25.5">
+    <row r="10" spans="1:33" ht="26.4">
       <c r="G10" s="14">
         <v>2</v>
       </c>
@@ -6303,7 +6555,7 @@
       <c r="N10" s="65"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:33" ht="25.5">
+    <row r="11" spans="1:33" ht="26.4">
       <c r="G11" s="14">
         <v>3</v>
       </c>
@@ -6318,7 +6570,7 @@
       <c r="N11" s="56"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:33" ht="25.5">
+    <row r="12" spans="1:33" ht="26.4">
       <c r="G12" s="14">
         <v>4</v>
       </c>
@@ -6331,7 +6583,7 @@
       <c r="N12" s="53"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:33" ht="25.5">
+    <row r="13" spans="1:33" ht="26.4">
       <c r="G13" s="14">
         <v>5</v>
       </c>
@@ -6344,7 +6596,7 @@
       <c r="N13" s="56"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:33" ht="25.5">
+    <row r="14" spans="1:33" ht="26.4">
       <c r="G14" s="14">
         <v>6</v>
       </c>
@@ -6357,7 +6609,7 @@
       <c r="N14" s="59"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="1:33" ht="26.25" thickBot="1">
+    <row r="15" spans="1:33" ht="27" thickBot="1">
       <c r="G15" s="15">
         <v>7</v>
       </c>
@@ -6370,7 +6622,7 @@
       <c r="N15" s="71"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="17" spans="1:33" s="7" customFormat="1" ht="25.5">
+    <row r="17" spans="1:33" s="7" customFormat="1" ht="26.4">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6386,7 +6638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="19.5" thickBot="1"/>
+    <row r="20" spans="1:33" ht="18.600000000000001" thickBot="1"/>
     <row r="21" spans="1:33" ht="38.25" customHeight="1">
       <c r="G21" s="17">
         <v>1</v>
@@ -6652,17 +6904,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:34" s="11" customFormat="1" ht="35.25">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="36.6">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -6752,7 +7004,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:34" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:34" s="7" customFormat="1" ht="26.4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8" t="s">
@@ -6796,7 +7048,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" s="6" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="7" spans="1:34" s="3" customFormat="1" ht="24">
+    <row r="7" spans="1:34" s="3" customFormat="1" ht="22.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7209,7 +7461,7 @@
       <c r="X24" s="96"/>
       <c r="Y24" s="96"/>
     </row>
-    <row r="26" spans="1:40" s="3" customFormat="1" ht="24">
+    <row r="26" spans="1:40" s="3" customFormat="1" ht="22.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7822,10 +8074,10 @@
     </row>
     <row r="56" spans="1:34">
       <c r="G56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" s="3" customFormat="1" ht="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" s="3" customFormat="1" ht="22.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -7892,8 +8144,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX"/>
+    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7902,17 +8154,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:34" s="11" customFormat="1" ht="35.25">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="36.6">
       <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
@@ -8002,7 +8254,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:34" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:34" s="7" customFormat="1" ht="26.4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8" t="s">
@@ -8046,7 +8298,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" s="6" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="7" spans="1:34" s="3" customFormat="1" ht="24">
+    <row r="7" spans="1:34" s="3" customFormat="1" ht="22.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8373,7 +8625,7 @@
       <c r="X20" s="96"/>
       <c r="Y20" s="96"/>
       <c r="AB20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -8464,7 +8716,7 @@
       <c r="X24" s="96"/>
       <c r="Y24" s="96"/>
     </row>
-    <row r="26" spans="1:34" s="3" customFormat="1" ht="24">
+    <row r="26" spans="1:34" s="3" customFormat="1" ht="22.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8512,7 +8764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="3" customFormat="1" ht="24">
+    <row r="31" spans="1:34" s="3" customFormat="1" ht="22.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8550,51 +8802,58 @@
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
     </row>
-    <row r="33" spans="6:35">
+    <row r="33" spans="6:40">
       <c r="F33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="6:35" ht="18" customHeight="1">
+    <row r="34" spans="6:40" ht="18" customHeight="1">
       <c r="F34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="6:35" ht="18" customHeight="1">
+    <row r="35" spans="6:40" ht="18" customHeight="1">
       <c r="F35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="6:40" ht="18" customHeight="1">
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="6:40" ht="18" customHeight="1"/>
+    <row r="38" spans="6:40" ht="18" customHeight="1">
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="6:40" ht="18" customHeight="1"/>
+    <row r="40" spans="6:40" ht="18" customHeight="1">
+      <c r="F40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="6:35" ht="18" customHeight="1">
-      <c r="F36" t="s">
+    <row r="41" spans="6:40" ht="18" customHeight="1">
+      <c r="F41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="6:35" ht="18" customHeight="1"/>
-    <row r="38" spans="6:35" ht="18" customHeight="1">
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="6:35" ht="18" customHeight="1"/>
-    <row r="40" spans="6:35" ht="18" customHeight="1">
-      <c r="F40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="6:35" ht="18" customHeight="1">
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="6:35" ht="18" customHeight="1"/>
-    <row r="43" spans="6:35" ht="18" customHeight="1">
-      <c r="F43" t="s">
+    <row r="42" spans="6:40" ht="18" customHeight="1"/>
+    <row r="43" spans="6:40" ht="18" customHeight="1">
+      <c r="F43" s="97" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="6:35" ht="18" customHeight="1"/>
-    <row r="45" spans="6:35" ht="18" customHeight="1">
+      <c r="AN43" s="97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="6:40" ht="18" customHeight="1">
+      <c r="AN44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="6:40" ht="18" customHeight="1">
       <c r="F45" s="37"/>
       <c r="G45" s="38"/>
       <c r="R45" s="37"/>
@@ -8603,8 +8862,11 @@
       <c r="W45" s="38"/>
       <c r="AH45" s="37"/>
       <c r="AI45" s="38"/>
-    </row>
-    <row r="46" spans="6:35" ht="18" customHeight="1">
+      <c r="AN45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="6:40" ht="18" customHeight="1">
       <c r="F46" s="39"/>
       <c r="G46" s="40"/>
       <c r="R46" s="39"/>
@@ -8614,7 +8876,7 @@
       <c r="AH46" s="39"/>
       <c r="AI46" s="40"/>
     </row>
-    <row r="47" spans="6:35" ht="18" customHeight="1">
+    <row r="47" spans="6:40" ht="18" customHeight="1">
       <c r="F47" s="37"/>
       <c r="G47" s="38"/>
       <c r="R47" s="37"/>
@@ -8624,7 +8886,7 @@
       <c r="AH47" s="37"/>
       <c r="AI47" s="38"/>
     </row>
-    <row r="48" spans="6:35" ht="18" customHeight="1">
+    <row r="48" spans="6:40" ht="18" customHeight="1">
       <c r="F48" s="39"/>
       <c r="G48" s="40"/>
       <c r="H48" s="43"/>
@@ -8807,7 +9069,7 @@
     <row r="55" spans="6:35" ht="18" customHeight="1"/>
     <row r="56" spans="6:35" ht="18" customHeight="1"/>
     <row r="57" spans="6:35" ht="18" customHeight="1">
-      <c r="F57" t="s">
+      <c r="F57" s="97" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8894,7 +9156,7 @@
     </row>
     <row r="69" spans="2:19">
       <c r="F69" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="2:19" s="1" customFormat="1">
@@ -8911,8 +9173,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX"/>
+    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8921,7 +9183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8929,9 +9191,9 @@
       <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:34" s="11" customFormat="1" ht="35.25">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="36.6">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
@@ -9021,7 +9283,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:34" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:34" s="7" customFormat="1" ht="26.4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8" t="s">
@@ -9065,7 +9327,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" s="6" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="7" spans="1:34" s="3" customFormat="1" ht="24">
+    <row r="7" spans="1:34" s="3" customFormat="1" ht="22.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9477,7 +9739,7 @@
       <c r="X24" s="96"/>
       <c r="Y24" s="96"/>
     </row>
-    <row r="26" spans="1:54" s="3" customFormat="1" ht="24">
+    <row r="26" spans="1:54" s="3" customFormat="1" ht="22.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -9892,7 +10154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:54" s="3" customFormat="1" ht="24">
+    <row r="45" spans="1:54" s="3" customFormat="1" ht="22.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -9949,8 +10211,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A2:C3" location="INDEXリンク０" display="INDEX"/>
+    <hyperlink ref="D2:F3" location="基本仕様TOP" display="TOP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
